--- a/medicine/Sexualité et sexologie/Hirsutophilie/Hirsutophilie.xlsx
+++ b/medicine/Sexualité et sexologie/Hirsutophilie/Hirsutophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hirsutophilie (terme tiré du latin hirsutus, hirsute, velu, et du grec φυλία, amour) est une paraphilie qui se définit comme une attirance sexuelle pour les poils du corps. Dans ce type de fétichisme, l'excitation érotique est plus particulièrement provoquée par la pilosité du torse masculin.
 </t>
